--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007074</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.60</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>77.81</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>007074</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>国寿安保新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.55</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.55</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2201,14 +2288,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2217,14 +2326,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -2233,13 +2480,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1467</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1462</t>
+          <t>0.1511</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -823,21 +840,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +863,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2095,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2303,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300036-超图软件.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +898,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.3663</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,12 +936,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -726,21 +951,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1512</t>
+          <t>0.1997</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1511</t>
+          <t>0.1994</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010663</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长江均衡成长混合A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.80</t>
+          <t>76.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.1994</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1050,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>010664</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>长江均衡成长混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -919,36 +1334,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1467</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -957,36 +1372,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -995,36 +1410,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1462</t>
+          <t>0.1511</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1043,26 +1458,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1086,21 +1501,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1109,6 +1524,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2358,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2564,212 +3225,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2579</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>